--- a/20241010进度.xlsx
+++ b/20241010进度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\大四任务一\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B88700-127D-4F59-8086-4BCE7C6956CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA7977-C8CD-4AEA-96FA-FB2E781E02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="5955" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>yolo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,9 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NWPU_VHR-10</t>
-  </si>
-  <si>
     <t>UCAS_AOD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vehicules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRSC2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VEDAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,13 +150,21 @@
   </si>
   <si>
     <t>SAR-Ship-Dataset</t>
+  </si>
+  <si>
+    <t>HRSC2016(bmp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NWPU_VHR-10(已转yolo汇总)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +211,20 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -276,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -317,6 +328,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,19 +622,19 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="64.75" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -625,267 +645,264 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
+      <c r="D8" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>45371</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>21</v>
       </c>
